--- a/excel/TS2022072901.xlsx
+++ b/excel/TS2022072901.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HoangQuan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9687C0B-B8BC-4F28-BC88-9B4111506060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D165E0F-6C2F-4660-993C-C1FC2DAC5099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1560" windowWidth="15375" windowHeight="7845" xr2:uid="{64013A02-C860-49EF-96E4-D0631AC020B5}"/>
+    <workbookView xWindow="2190" yWindow="1080" windowWidth="15375" windowHeight="7845" xr2:uid="{64013A02-C860-49EF-96E4-D0631AC020B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1300,7 +1300,7 @@
   <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection sqref="A1:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
